--- a/biology/Biologie cellulaire et moléculaire/Test_ISET/Test_ISET.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Test_ISET/Test_ISET.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test ISET (« Isolation by Size of Epithelial Tumor cells ») est un examen médical visant la détection précoce des cancers par l'isolation des cellules tumorales circulantes dans un échantillon sanguin. Le test met en œuvre un procédé développé par l'INSERM, l'université Paris Descartes et l'Assistance publique - Hôpitaux de Paris (AP-HP) qui a pour but d'isoler la totalité des cellules cancéreuses circulantes présentes dans l'échantillon et de les identifier par une approche cytopathologique.
 </t>
@@ -511,10 +523,12 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La technologie ISET[1] est basée sur le fait que les cellules tumorales provenant de cancers solides de tous types sont de dimension plus grande que les cellules sanguines classiques. Filtrer le sang pour isoler les CTC sans perte ni dommage reste cependant un défi de taille. Le test ISET utilise un appareil ainsi que des filtres spécialement conçus pour éliminer tous les érythrocytes et pratiquement tous les leucocytes de l'échantillon, ce qui rend la mise en œuvre du procédé de cytopathologie plus simple et précise[2],[3].</t>
+La technologie ISET est basée sur le fait que les cellules tumorales provenant de cancers solides de tous types sont de dimension plus grande que les cellules sanguines classiques. Filtrer le sang pour isoler les CTC sans perte ni dommage reste cependant un défi de taille. Le test ISET utilise un appareil ainsi que des filtres spécialement conçus pour éliminer tous les érythrocytes et pratiquement tous les leucocytes de l'échantillon, ce qui rend la mise en œuvre du procédé de cytopathologie plus simple et précise,.</t>
         </is>
       </c>
     </row>
@@ -542,10 +556,12 @@
           <t>Qualité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait que le test ISET est basé sur la cytopathologie (identification visuelle des cellules cancéreuses) plutôt que sur l'utilisation de biomarqueurs, ses développeurs revendiquent un taux de détection de 95 % et un très faible taux de faux résultats positifs. Sur un groupe de 770 patients composé de 569 patients atteints d'un cancer et de 201 sans cancer, le test a permis de détecter 559 cancers dans le groupe des patients avec cancer (10 cancers de la thyroïde ou parathyroïde n'ont pas été détectés, mais ce résultat était attendu)[4]. Ce résultat parait toutefois assez surprenant compte tenu du fait l'on produit tous les jours des cellules tumorales circulantes[5] même en l'absence de cancer déclaré. Le test semble surtout avoir un intérêt pour adapter le traitement dans un cancer déclaré afin de connaitre son stade d'évolution (métastases)[6],[7]. 
-Le coût du test, 486 €, n'est pas en France remboursé par la Sécurité sociale en 2016[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait que le test ISET est basé sur la cytopathologie (identification visuelle des cellules cancéreuses) plutôt que sur l'utilisation de biomarqueurs, ses développeurs revendiquent un taux de détection de 95 % et un très faible taux de faux résultats positifs. Sur un groupe de 770 patients composé de 569 patients atteints d'un cancer et de 201 sans cancer, le test a permis de détecter 559 cancers dans le groupe des patients avec cancer (10 cancers de la thyroïde ou parathyroïde n'ont pas été détectés, mais ce résultat était attendu). Ce résultat parait toutefois assez surprenant compte tenu du fait l'on produit tous les jours des cellules tumorales circulantes même en l'absence de cancer déclaré. Le test semble surtout avoir un intérêt pour adapter le traitement dans un cancer déclaré afin de connaitre son stade d'évolution (métastases),. 
+Le coût du test, 486 €, n'est pas en France remboursé par la Sécurité sociale en 2016.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La technologie ISET est annoncée pour la première fois en 2000 dans l'American Journal of Pathology par l'équipe du professeur Patrizia Paterlini-Bréchot. 
-De 2005 à 2008, l'appareil mettant en œuvre le procédé ISET est distribué par l'entreprise Metagenex. En 2009, Metagenex rend les licences du procédé ISET à ses développeurs initiaux : l'INSERM, l'Université Paris Descartes et l'AP-HP. Patrizia Paterlini-Bréchot fonde ensuite la société Rarecells[9] qui obtient en 2010 la licence exclusive pour le développement, la production et la distribution du test ISET.
+De 2005 à 2008, l'appareil mettant en œuvre le procédé ISET est distribué par l'entreprise Metagenex. En 2009, Metagenex rend les licences du procédé ISET à ses développeurs initiaux : l'INSERM, l'Université Paris Descartes et l'AP-HP. Patrizia Paterlini-Bréchot fonde ensuite la société Rarecells qui obtient en 2010 la licence exclusive pour le développement, la production et la distribution du test ISET.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>M. Krebs et al., « Analysis of Circulating Tumor Cells in Patients with Non-small Cell Lung Cancer Using Epithelial Marker-Dependent and -Independent Approaches », Journal of Thoracic Oncology, vol. 7, no 2,‎ février 2012, p. 306–315 (DOI 10.1097/jto.0b013e31823c5c16)
 Farace et al., « A Direct Comparison of CellSearch™ and ISET® for Circulating Tumour-Cell Detection in Patients with Metastatic Carcinomas », British Journal of Cancer, vol. 105, no 6,‎ septembre 2011, p. 847–853 (DOI 10.1038/bjc.2011.294)
